--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_f_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_f_Embedded_Qs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CE8D6-E39A-4BFF-A34A-A5C65384E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2025" windowWidth="19005" windowHeight="13260"/>
+    <workbookView xWindow="1845" yWindow="345" windowWidth="26325" windowHeight="14760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,26 @@
     <sheet name="Matching" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>Correct</t>
   </si>
@@ -303,12 +313,33 @@
   </si>
   <si>
     <t>In estimating standard deviation, we looked for a value x for which "Most but not all of the data points were within x distance from the mean".  For SEF, we are looking for a value x for which "Most but not all of the data points fall within x distance from the fitted curve."  Here most of the points are within 0.2 in the y-direction of the curve.</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>Fitted value</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>DoF</t>
+  </si>
+  <si>
+    <t>SoF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,10 +711,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -748,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -798,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -848,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -924,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1011,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1175,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1251,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1331,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1397,11 +1428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,40 +1443,136 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>8.6599999999999996E-2</v>
+        <v>0.93</v>
       </c>
       <c r="B2" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*$J$2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(F2-G2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2-2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G5" si="0">E3*$J$2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H5" si="1">(F3-G3)^2</f>
+        <v>1.6000000000000029E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.59999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000071E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT(SUM(H2:H5)/L2)</f>
+        <v>9.3005376188691508E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,7 +1580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1519,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1594,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1640,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1686,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/2_f_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/2_f_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CE8D6-E39A-4BFF-A34A-A5C65384E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF9789E-6296-4CA7-9288-461416C30028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="345" windowWidth="26325" windowHeight="14760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1440" windowWidth="26325" windowHeight="14760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0.93</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="B2" s="2">
         <v>0.03</v>
